--- a/notebooks/XGBoost/predictions_ele.xlsx
+++ b/notebooks/XGBoost/predictions_ele.xlsx
@@ -468,7 +468,7 @@
         <v>70.77</v>
       </c>
       <c r="D2" t="n">
-        <v>70.15498352050781</v>
+        <v>69.50811004638672</v>
       </c>
     </row>
     <row r="3">
@@ -484,7 +484,7 @@
         <v>68.25</v>
       </c>
       <c r="D3" t="n">
-        <v>68.05918884277344</v>
+        <v>67.73674774169922</v>
       </c>
     </row>
     <row r="4">
@@ -500,7 +500,7 @@
         <v>71.51000000000001</v>
       </c>
       <c r="D4" t="n">
-        <v>70.703369140625</v>
+        <v>70.33882141113281</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>72.2</v>
       </c>
       <c r="D5" t="n">
-        <v>71.28370666503906</v>
+        <v>70.96688079833984</v>
       </c>
     </row>
     <row r="6">
@@ -532,7 +532,7 @@
         <v>73.7</v>
       </c>
       <c r="D6" t="n">
-        <v>72.93320465087891</v>
+        <v>72.47299957275391</v>
       </c>
     </row>
     <row r="7">
@@ -548,7 +548,7 @@
         <v>71.98</v>
       </c>
       <c r="D7" t="n">
-        <v>70.98392486572266</v>
+        <v>70.71328735351562</v>
       </c>
     </row>
     <row r="8">
@@ -564,7 +564,7 @@
         <v>71.62</v>
       </c>
       <c r="D8" t="n">
-        <v>70.71262359619141</v>
+        <v>70.32733154296875</v>
       </c>
     </row>
     <row r="9">
@@ -580,7 +580,7 @@
         <v>73.69</v>
       </c>
       <c r="D9" t="n">
-        <v>72.71267700195312</v>
+        <v>72.32534027099609</v>
       </c>
     </row>
     <row r="10">
@@ -596,7 +596,7 @@
         <v>71.7</v>
       </c>
       <c r="D10" t="n">
-        <v>70.77919769287109</v>
+        <v>70.67269897460938</v>
       </c>
     </row>
     <row r="11">
@@ -612,7 +612,7 @@
         <v>72.91</v>
       </c>
       <c r="D11" t="n">
-        <v>71.85549926757812</v>
+        <v>71.64386749267578</v>
       </c>
     </row>
     <row r="12">
@@ -628,7 +628,7 @@
         <v>68.3</v>
       </c>
       <c r="D12" t="n">
-        <v>68.0360107421875</v>
+        <v>67.58716583251953</v>
       </c>
     </row>
     <row r="13">
@@ -644,7 +644,7 @@
         <v>73.55</v>
       </c>
       <c r="D13" t="n">
-        <v>72.52704620361328</v>
+        <v>72.13574981689453</v>
       </c>
     </row>
     <row r="14">
@@ -660,7 +660,7 @@
         <v>71.18000000000001</v>
       </c>
       <c r="D14" t="n">
-        <v>70.29320526123047</v>
+        <v>69.87449645996094</v>
       </c>
     </row>
     <row r="15">
@@ -676,7 +676,7 @@
         <v>69.81999999999999</v>
       </c>
       <c r="D15" t="n">
-        <v>69.58449554443359</v>
+        <v>68.67906188964844</v>
       </c>
     </row>
     <row r="16">
@@ -692,7 +692,7 @@
         <v>77.14</v>
       </c>
       <c r="D16" t="n">
-        <v>76.05809020996094</v>
+        <v>75.22447204589844</v>
       </c>
     </row>
     <row r="17">
@@ -708,7 +708,7 @@
         <v>73.70999999999999</v>
       </c>
       <c r="D17" t="n">
-        <v>73.01142120361328</v>
+        <v>72.54795837402344</v>
       </c>
     </row>
     <row r="18">
@@ -724,7 +724,7 @@
         <v>73.08</v>
       </c>
       <c r="D18" t="n">
-        <v>72.19534301757812</v>
+        <v>71.79213714599609</v>
       </c>
     </row>
     <row r="19">
@@ -740,7 +740,7 @@
         <v>70.43000000000001</v>
       </c>
       <c r="D19" t="n">
-        <v>70.15810394287109</v>
+        <v>68.73863983154297</v>
       </c>
     </row>
     <row r="20">
@@ -756,7 +756,7 @@
         <v>76.25</v>
       </c>
       <c r="D20" t="n">
-        <v>75.43222045898438</v>
+        <v>74.87026977539062</v>
       </c>
     </row>
     <row r="21">
@@ -772,7 +772,7 @@
         <v>70.29000000000001</v>
       </c>
       <c r="D21" t="n">
-        <v>69.94138336181641</v>
+        <v>69.10826873779297</v>
       </c>
     </row>
     <row r="22">
@@ -788,7 +788,7 @@
         <v>71.98999999999999</v>
       </c>
       <c r="D22" t="n">
-        <v>70.91745758056641</v>
+        <v>70.66078948974609</v>
       </c>
     </row>
     <row r="23">
@@ -804,7 +804,7 @@
         <v>71.05</v>
       </c>
       <c r="D23" t="n">
-        <v>70.53527069091797</v>
+        <v>69.60935211181641</v>
       </c>
     </row>
     <row r="24">
@@ -820,7 +820,7 @@
         <v>73.70999999999999</v>
       </c>
       <c r="D24" t="n">
-        <v>72.90442657470703</v>
+        <v>72.39864349365234</v>
       </c>
     </row>
     <row r="25">
@@ -836,7 +836,7 @@
         <v>71.31999999999999</v>
       </c>
       <c r="D25" t="n">
-        <v>70.47018432617188</v>
+        <v>69.99823760986328</v>
       </c>
     </row>
     <row r="26">
@@ -852,7 +852,7 @@
         <v>69.79000000000001</v>
       </c>
       <c r="D26" t="n">
-        <v>69.34415435791016</v>
+        <v>68.98644256591797</v>
       </c>
     </row>
     <row r="27">
@@ -868,7 +868,7 @@
         <v>72.45</v>
       </c>
       <c r="D27" t="n">
-        <v>71.47786712646484</v>
+        <v>70.83596801757812</v>
       </c>
     </row>
     <row r="28">
@@ -884,7 +884,7 @@
         <v>74.88</v>
       </c>
       <c r="D28" t="n">
-        <v>74.32588958740234</v>
+        <v>73.30821990966797</v>
       </c>
     </row>
     <row r="29">
@@ -900,7 +900,7 @@
         <v>72.44</v>
       </c>
       <c r="D29" t="n">
-        <v>71.52748870849609</v>
+        <v>71.08389282226562</v>
       </c>
     </row>
     <row r="30">
@@ -916,7 +916,7 @@
         <v>69.3</v>
       </c>
       <c r="D30" t="n">
-        <v>69.10518646240234</v>
+        <v>68.2437744140625</v>
       </c>
     </row>
     <row r="31">
@@ -932,7 +932,7 @@
         <v>74.48999999999999</v>
       </c>
       <c r="D31" t="n">
-        <v>73.74746704101562</v>
+        <v>73.43525695800781</v>
       </c>
     </row>
     <row r="32">
@@ -948,7 +948,7 @@
         <v>70.44</v>
       </c>
       <c r="D32" t="n">
-        <v>70.02923583984375</v>
+        <v>69.33402252197266</v>
       </c>
     </row>
     <row r="33">
@@ -964,7 +964,7 @@
         <v>70.67</v>
       </c>
       <c r="D33" t="n">
-        <v>70.30354309082031</v>
+        <v>69.82311248779297</v>
       </c>
     </row>
     <row r="34">
@@ -980,7 +980,7 @@
         <v>72.09999999999999</v>
       </c>
       <c r="D34" t="n">
-        <v>70.95412445068359</v>
+        <v>70.87534332275391</v>
       </c>
     </row>
     <row r="35">
@@ -996,7 +996,7 @@
         <v>70.43000000000001</v>
       </c>
       <c r="D35" t="n">
-        <v>70.02179718017578</v>
+        <v>69.43471527099609</v>
       </c>
     </row>
     <row r="36">
@@ -1012,7 +1012,7 @@
         <v>72.2</v>
       </c>
       <c r="D36" t="n">
-        <v>71.23451232910156</v>
+        <v>70.93784332275391</v>
       </c>
     </row>
     <row r="37">
@@ -1028,7 +1028,7 @@
         <v>71.83</v>
       </c>
       <c r="D37" t="n">
-        <v>70.91604614257812</v>
+        <v>70.72098541259766</v>
       </c>
     </row>
     <row r="38">
@@ -1044,7 +1044,7 @@
         <v>71.12</v>
       </c>
       <c r="D38" t="n">
-        <v>70.33620452880859</v>
+        <v>70.15605926513672</v>
       </c>
     </row>
     <row r="39">
@@ -1060,7 +1060,7 @@
         <v>71.65000000000001</v>
       </c>
       <c r="D39" t="n">
-        <v>70.72064208984375</v>
+        <v>70.28861999511719</v>
       </c>
     </row>
     <row r="40">
@@ -1076,7 +1076,7 @@
         <v>72.63</v>
       </c>
       <c r="D40" t="n">
-        <v>71.67795562744141</v>
+        <v>71.30925750732422</v>
       </c>
     </row>
     <row r="41">
@@ -1092,7 +1092,7 @@
         <v>70.94</v>
       </c>
       <c r="D41" t="n">
-        <v>70.26848602294922</v>
+        <v>69.84195709228516</v>
       </c>
     </row>
     <row r="42">
@@ -1108,7 +1108,7 @@
         <v>70.06</v>
       </c>
       <c r="D42" t="n">
-        <v>69.81706237792969</v>
+        <v>69.10550689697266</v>
       </c>
     </row>
     <row r="43">
@@ -1124,7 +1124,7 @@
         <v>70</v>
       </c>
       <c r="D43" t="n">
-        <v>69.64348602294922</v>
+        <v>68.592529296875</v>
       </c>
     </row>
     <row r="44">
@@ -1140,7 +1140,7 @@
         <v>75.36</v>
       </c>
       <c r="D44" t="n">
-        <v>74.79496002197266</v>
+        <v>73.72636413574219</v>
       </c>
     </row>
     <row r="45">
@@ -1156,7 +1156,7 @@
         <v>69.39</v>
       </c>
       <c r="D45" t="n">
-        <v>69.07917022705078</v>
+        <v>68.29789733886719</v>
       </c>
     </row>
     <row r="46">
@@ -1172,7 +1172,7 @@
         <v>73.17</v>
       </c>
       <c r="D46" t="n">
-        <v>72.63482666015625</v>
+        <v>71.84527587890625</v>
       </c>
     </row>
     <row r="47">
@@ -1188,7 +1188,7 @@
         <v>69.54000000000001</v>
       </c>
       <c r="D47" t="n">
-        <v>69.18378448486328</v>
+        <v>68.57734680175781</v>
       </c>
     </row>
     <row r="48">
@@ -1204,7 +1204,7 @@
         <v>79.87</v>
       </c>
       <c r="D48" t="n">
-        <v>77.76486968994141</v>
+        <v>77.44563293457031</v>
       </c>
     </row>
     <row r="49">
@@ -1220,7 +1220,7 @@
         <v>79.2</v>
       </c>
       <c r="D49" t="n">
-        <v>77.57577514648438</v>
+        <v>77.14621734619141</v>
       </c>
     </row>
     <row r="50">
@@ -1236,7 +1236,7 @@
         <v>74.53</v>
       </c>
       <c r="D50" t="n">
-        <v>73.77204132080078</v>
+        <v>73.16099548339844</v>
       </c>
     </row>
     <row r="51">
@@ -1252,7 +1252,7 @@
         <v>69.75</v>
       </c>
       <c r="D51" t="n">
-        <v>69.37564849853516</v>
+        <v>68.44931793212891</v>
       </c>
     </row>
     <row r="52">
@@ -1268,7 +1268,7 @@
         <v>70.43000000000001</v>
       </c>
       <c r="D52" t="n">
-        <v>69.99026489257812</v>
+        <v>69.25196838378906</v>
       </c>
     </row>
     <row r="53">
@@ -1284,7 +1284,7 @@
         <v>72.76000000000001</v>
       </c>
       <c r="D53" t="n">
-        <v>71.6845703125</v>
+        <v>71.42623138427734</v>
       </c>
     </row>
     <row r="54">
@@ -1300,7 +1300,7 @@
         <v>72.04000000000001</v>
       </c>
       <c r="D54" t="n">
-        <v>71.09034729003906</v>
+        <v>71.03048706054688</v>
       </c>
     </row>
     <row r="55">
@@ -1316,7 +1316,7 @@
         <v>73.78</v>
       </c>
       <c r="D55" t="n">
-        <v>72.90186309814453</v>
+        <v>72.45082855224609</v>
       </c>
     </row>
     <row r="56">
@@ -1332,7 +1332,7 @@
         <v>67.17</v>
       </c>
       <c r="D56" t="n">
-        <v>67.35646820068359</v>
+        <v>67.10199737548828</v>
       </c>
     </row>
     <row r="57">
@@ -1348,7 +1348,7 @@
         <v>76.16</v>
       </c>
       <c r="D57" t="n">
-        <v>75.23653411865234</v>
+        <v>74.51811218261719</v>
       </c>
     </row>
     <row r="58">
@@ -1364,7 +1364,7 @@
         <v>75.25</v>
       </c>
       <c r="D58" t="n">
-        <v>74.55300903320312</v>
+        <v>73.95146179199219</v>
       </c>
     </row>
     <row r="59">
@@ -1380,7 +1380,7 @@
         <v>66.59</v>
       </c>
       <c r="D59" t="n">
-        <v>66.44532775878906</v>
+        <v>66.42049407958984</v>
       </c>
     </row>
     <row r="60">
@@ -1396,7 +1396,7 @@
         <v>70.68000000000001</v>
       </c>
       <c r="D60" t="n">
-        <v>70.26413726806641</v>
+        <v>69.66925811767578</v>
       </c>
     </row>
     <row r="61">
@@ -1412,7 +1412,7 @@
         <v>73.48</v>
       </c>
       <c r="D61" t="n">
-        <v>72.67629241943359</v>
+        <v>71.85098266601562</v>
       </c>
     </row>
     <row r="62">
@@ -1428,7 +1428,7 @@
         <v>73.19</v>
       </c>
       <c r="D62" t="n">
-        <v>72.239013671875</v>
+        <v>71.40920257568359</v>
       </c>
     </row>
     <row r="63">
@@ -1444,7 +1444,7 @@
         <v>72.53</v>
       </c>
       <c r="D63" t="n">
-        <v>71.67101287841797</v>
+        <v>71.39365386962891</v>
       </c>
     </row>
     <row r="64">
@@ -1460,7 +1460,7 @@
         <v>73.27</v>
       </c>
       <c r="D64" t="n">
-        <v>72.58184814453125</v>
+        <v>71.76992034912109</v>
       </c>
     </row>
     <row r="65">
@@ -1476,7 +1476,7 @@
         <v>70.22</v>
       </c>
       <c r="D65" t="n">
-        <v>69.82016754150391</v>
+        <v>69.36676788330078</v>
       </c>
     </row>
     <row r="66">
@@ -1492,7 +1492,7 @@
         <v>71.84</v>
       </c>
       <c r="D66" t="n">
-        <v>70.87715911865234</v>
+        <v>70.82325744628906</v>
       </c>
     </row>
     <row r="67">
@@ -1508,7 +1508,7 @@
         <v>71.47</v>
       </c>
       <c r="D67" t="n">
-        <v>70.6407470703125</v>
+        <v>69.91110229492188</v>
       </c>
     </row>
     <row r="68">
@@ -1524,7 +1524,7 @@
         <v>74.86</v>
       </c>
       <c r="D68" t="n">
-        <v>74.65853118896484</v>
+        <v>73.77989196777344</v>
       </c>
     </row>
     <row r="69">
@@ -1540,7 +1540,7 @@
         <v>72.87</v>
       </c>
       <c r="D69" t="n">
-        <v>71.68153381347656</v>
+        <v>71.34531402587891</v>
       </c>
     </row>
     <row r="70">
@@ -1556,7 +1556,7 @@
         <v>70.61</v>
       </c>
       <c r="D70" t="n">
-        <v>70.07297515869141</v>
+        <v>69.33023071289062</v>
       </c>
     </row>
     <row r="71">
@@ -1572,7 +1572,7 @@
         <v>73.05</v>
       </c>
       <c r="D71" t="n">
-        <v>72.18337249755859</v>
+        <v>71.70774841308594</v>
       </c>
     </row>
     <row r="72">
@@ -1588,7 +1588,7 @@
         <v>72.15000000000001</v>
       </c>
       <c r="D72" t="n">
-        <v>71.2335205078125</v>
+        <v>71.02065277099609</v>
       </c>
     </row>
     <row r="73">
@@ -1604,7 +1604,7 @@
         <v>75.44</v>
       </c>
       <c r="D73" t="n">
-        <v>74.79795074462891</v>
+        <v>73.9169921875</v>
       </c>
     </row>
     <row r="74">
@@ -1620,7 +1620,7 @@
         <v>72.34</v>
       </c>
       <c r="D74" t="n">
-        <v>71.52943420410156</v>
+        <v>71.24604034423828</v>
       </c>
     </row>
     <row r="75">
@@ -1636,7 +1636,7 @@
         <v>72.04000000000001</v>
       </c>
       <c r="D75" t="n">
-        <v>70.96399688720703</v>
+        <v>70.65619659423828</v>
       </c>
     </row>
     <row r="76">
@@ -1652,7 +1652,7 @@
         <v>70.33</v>
       </c>
       <c r="D76" t="n">
-        <v>69.79485321044922</v>
+        <v>69.25694274902344</v>
       </c>
     </row>
     <row r="77">
@@ -1668,7 +1668,7 @@
         <v>76.31999999999999</v>
       </c>
       <c r="D77" t="n">
-        <v>75.71796417236328</v>
+        <v>74.80502319335938</v>
       </c>
     </row>
     <row r="78">
@@ -1684,7 +1684,7 @@
         <v>72.43000000000001</v>
       </c>
       <c r="D78" t="n">
-        <v>71.5657958984375</v>
+        <v>71.27490234375</v>
       </c>
     </row>
     <row r="79">
@@ -1700,7 +1700,7 @@
         <v>76.26000000000001</v>
       </c>
       <c r="D79" t="n">
-        <v>75.48896789550781</v>
+        <v>74.58694458007812</v>
       </c>
     </row>
     <row r="80">
@@ -1716,7 +1716,7 @@
         <v>73.06999999999999</v>
       </c>
       <c r="D80" t="n">
-        <v>72.13968658447266</v>
+        <v>71.78860473632812</v>
       </c>
     </row>
     <row r="81">
@@ -1732,7 +1732,7 @@
         <v>66.56</v>
       </c>
       <c r="D81" t="n">
-        <v>65.95014190673828</v>
+        <v>65.42494964599609</v>
       </c>
     </row>
     <row r="82">
@@ -1748,7 +1748,7 @@
         <v>75.3</v>
       </c>
       <c r="D82" t="n">
-        <v>74.65389251708984</v>
+        <v>73.80522918701172</v>
       </c>
     </row>
     <row r="83">
@@ -1764,7 +1764,7 @@
         <v>71.98999999999999</v>
       </c>
       <c r="D83" t="n">
-        <v>70.97522735595703</v>
+        <v>70.73366546630859</v>
       </c>
     </row>
     <row r="84">
@@ -1780,7 +1780,7 @@
         <v>79.38</v>
       </c>
       <c r="D84" t="n">
-        <v>77.41239166259766</v>
+        <v>76.73368835449219</v>
       </c>
     </row>
     <row r="85">
@@ -1796,7 +1796,7 @@
         <v>76.55</v>
       </c>
       <c r="D85" t="n">
-        <v>75.95368957519531</v>
+        <v>75.03580474853516</v>
       </c>
     </row>
     <row r="86">
@@ -1812,7 +1812,7 @@
         <v>76.11</v>
       </c>
       <c r="D86" t="n">
-        <v>75.44480133056641</v>
+        <v>74.50277709960938</v>
       </c>
     </row>
   </sheetData>
